--- a/data/output/low_noisy/results/psnr.xlsx
+++ b/data/output/low_noisy/results/psnr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\GaussianExperiments\data\output\low_noisy\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90EA3C0-CE59-4279-AD24-D4F3F20ED174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1658B18C-3AC2-4243-8DAB-FE387FB215F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+      <selection activeCell="A2" sqref="A2:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,554 +437,554 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>37.222185420000002</v>
-      </c>
-      <c r="B2">
-        <v>37.857725379999998</v>
-      </c>
-      <c r="C2">
-        <v>38.358442740000001</v>
+      <c r="A2" s="2">
+        <v>37.166201433516292</v>
+      </c>
+      <c r="B2" s="2">
+        <v>37.816873080708703</v>
+      </c>
+      <c r="C2" s="2">
+        <v>38.322728372954991</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>36.414564900000002</v>
-      </c>
-      <c r="B3">
-        <v>37.197421329999997</v>
-      </c>
-      <c r="C3">
-        <v>37.96644259</v>
+      <c r="A3" s="2">
+        <v>36.385210469232007</v>
+      </c>
+      <c r="B3" s="2">
+        <v>37.197846300395</v>
+      </c>
+      <c r="C3" s="2">
+        <v>37.950003561168387</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>35.647321869999999</v>
-      </c>
-      <c r="B4">
-        <v>36.421218449999998</v>
-      </c>
-      <c r="C4">
-        <v>36.565704869999998</v>
+      <c r="A4" s="2">
+        <v>35.662353782795812</v>
+      </c>
+      <c r="B4" s="2">
+        <v>36.43642650854342</v>
+      </c>
+      <c r="C4" s="2">
+        <v>36.595511244672878</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>36.557985539999997</v>
-      </c>
-      <c r="B5">
-        <v>37.162893820000001</v>
-      </c>
-      <c r="C5">
-        <v>34.535606059999999</v>
+      <c r="A5" s="2">
+        <v>36.558912931176472</v>
+      </c>
+      <c r="B5" s="2">
+        <v>37.175563672227533</v>
+      </c>
+      <c r="C5" s="2">
+        <v>34.705636347398062</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>35.717995049999999</v>
-      </c>
-      <c r="B6">
-        <v>36.456221499999998</v>
-      </c>
-      <c r="C6">
-        <v>36.802908299999999</v>
+      <c r="A6" s="2">
+        <v>35.737098833034288</v>
+      </c>
+      <c r="B6" s="2">
+        <v>36.476841746781723</v>
+      </c>
+      <c r="C6" s="2">
+        <v>36.900501491688843</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>35.77650345</v>
-      </c>
-      <c r="B7">
-        <v>36.745634889999998</v>
-      </c>
-      <c r="C7">
-        <v>36.94250443</v>
+      <c r="A7" s="2">
+        <v>35.832710073405423</v>
+      </c>
+      <c r="B7" s="2">
+        <v>36.774162637978989</v>
+      </c>
+      <c r="C7" s="2">
+        <v>36.957806619224151</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>35.677596119999997</v>
-      </c>
-      <c r="B8">
-        <v>36.000294060000002</v>
-      </c>
-      <c r="C8">
-        <v>32.628044559999999</v>
+      <c r="A8" s="2">
+        <v>35.646538253396763</v>
+      </c>
+      <c r="B8" s="2">
+        <v>35.943676787744117</v>
+      </c>
+      <c r="C8" s="2">
+        <v>31.997701536389268</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>34.716575200000001</v>
-      </c>
-      <c r="B9">
-        <v>35.120484599999997</v>
-      </c>
-      <c r="C9">
-        <v>33.435164180000001</v>
+      <c r="A9" s="2">
+        <v>34.697935911891939</v>
+      </c>
+      <c r="B9" s="2">
+        <v>35.098244190363459</v>
+      </c>
+      <c r="C9" s="2">
+        <v>33.339533372186978</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>36.293353850000003</v>
-      </c>
-      <c r="B10">
-        <v>36.864907559999999</v>
-      </c>
-      <c r="C10">
-        <v>37.238577540000001</v>
+      <c r="A10" s="2">
+        <v>36.309051014370112</v>
+      </c>
+      <c r="B10" s="2">
+        <v>36.86233862266365</v>
+      </c>
+      <c r="C10" s="2">
+        <v>37.152392199454447</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>35.831421990000003</v>
-      </c>
-      <c r="B11">
-        <v>36.222361360000001</v>
-      </c>
-      <c r="C11">
-        <v>34.17853341</v>
+      <c r="A11" s="2">
+        <v>35.838202382044379</v>
+      </c>
+      <c r="B11" s="2">
+        <v>36.228506420041818</v>
+      </c>
+      <c r="C11" s="2">
+        <v>33.384340231669981</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>37.274750930000003</v>
-      </c>
-      <c r="B12">
-        <v>37.954994759999998</v>
-      </c>
-      <c r="C12">
-        <v>39.180613940000001</v>
+      <c r="A12" s="2">
+        <v>37.238176896464353</v>
+      </c>
+      <c r="B12" s="2">
+        <v>37.902408125453711</v>
+      </c>
+      <c r="C12" s="2">
+        <v>39.132947799508543</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>35.462525569999997</v>
-      </c>
-      <c r="B13">
-        <v>35.926783980000003</v>
-      </c>
-      <c r="C13">
-        <v>34.090174070000003</v>
+      <c r="A13" s="2">
+        <v>35.458936776289008</v>
+      </c>
+      <c r="B13" s="2">
+        <v>35.919734529432752</v>
+      </c>
+      <c r="C13" s="2">
+        <v>34.185765237825152</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>35.313276960000003</v>
-      </c>
-      <c r="B14">
-        <v>35.913928380000002</v>
-      </c>
-      <c r="C14">
-        <v>35.381032349999998</v>
+      <c r="A14" s="2">
+        <v>35.317786561212053</v>
+      </c>
+      <c r="B14" s="2">
+        <v>35.910029140691137</v>
+      </c>
+      <c r="C14" s="2">
+        <v>34.900698837031037</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>36.496984869999999</v>
-      </c>
-      <c r="B15">
-        <v>37.169597879999998</v>
-      </c>
-      <c r="C15">
-        <v>38.352986880000003</v>
+      <c r="A15" s="2">
+        <v>36.493809639714001</v>
+      </c>
+      <c r="B15" s="2">
+        <v>37.146743411189981</v>
+      </c>
+      <c r="C15" s="2">
+        <v>38.344120685347839</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>34.349812270000001</v>
-      </c>
-      <c r="B16">
-        <v>34.43078749</v>
-      </c>
-      <c r="C16">
-        <v>29.790010089999999</v>
+      <c r="A16" s="2">
+        <v>34.342171413749043</v>
+      </c>
+      <c r="B16" s="2">
+        <v>34.417578641430417</v>
+      </c>
+      <c r="C16" s="2">
+        <v>30.197889193147489</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>34.983076760000003</v>
-      </c>
-      <c r="B17">
-        <v>35.08686324</v>
-      </c>
-      <c r="C17">
-        <v>32.431015019999997</v>
+      <c r="A17" s="2">
+        <v>34.980222228690202</v>
+      </c>
+      <c r="B17" s="2">
+        <v>35.07918717031324</v>
+      </c>
+      <c r="C17" s="2">
+        <v>32.475946104298131</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>34.230765910000002</v>
-      </c>
-      <c r="B18">
-        <v>34.305523370000003</v>
-      </c>
-      <c r="C18">
-        <v>27.125487509999999</v>
+      <c r="A18" s="2">
+        <v>34.235246192423944</v>
+      </c>
+      <c r="B18" s="2">
+        <v>34.327475066485647</v>
+      </c>
+      <c r="C18" s="2">
+        <v>27.124924608872611</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>34.742430079999998</v>
-      </c>
-      <c r="B19">
-        <v>35.026562390000002</v>
-      </c>
-      <c r="C19">
-        <v>32.089685119999999</v>
+      <c r="A19" s="2">
+        <v>34.760282677944723</v>
+      </c>
+      <c r="B19" s="2">
+        <v>35.052848488130643</v>
+      </c>
+      <c r="C19" s="2">
+        <v>32.331609359321412</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>34.694275150000003</v>
-      </c>
-      <c r="B20">
-        <v>34.816444760000003</v>
-      </c>
-      <c r="C20">
-        <v>27.009546919999998</v>
+      <c r="A20" s="2">
+        <v>34.726049740671577</v>
+      </c>
+      <c r="B20" s="2">
+        <v>34.843777196023787</v>
+      </c>
+      <c r="C20" s="2">
+        <v>26.845800574097549</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>35.539883320000001</v>
-      </c>
-      <c r="B21">
-        <v>36.013598520000002</v>
-      </c>
-      <c r="C21">
-        <v>34.954722359999998</v>
+      <c r="A21" s="2">
+        <v>35.509205318914809</v>
+      </c>
+      <c r="B21" s="2">
+        <v>35.992863113306093</v>
+      </c>
+      <c r="C21" s="2">
+        <v>34.165354129201702</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>34.72171453</v>
-      </c>
-      <c r="B22">
-        <v>34.872521849999998</v>
-      </c>
-      <c r="C22">
-        <v>33.996650010000003</v>
+      <c r="A22" s="2">
+        <v>34.756530922419763</v>
+      </c>
+      <c r="B22" s="2">
+        <v>34.912531714403869</v>
+      </c>
+      <c r="C22" s="2">
+        <v>34.18529770165469</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>36.107457220000001</v>
-      </c>
-      <c r="B23">
-        <v>36.468885389999997</v>
-      </c>
-      <c r="C23">
-        <v>36.334493879999997</v>
+      <c r="A23" s="2">
+        <v>36.093921636501733</v>
+      </c>
+      <c r="B23" s="2">
+        <v>36.449839258936933</v>
+      </c>
+      <c r="C23" s="2">
+        <v>36.302222261788579</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>35.797879279999997</v>
-      </c>
-      <c r="B24">
-        <v>35.748954429999998</v>
-      </c>
-      <c r="C24">
-        <v>33.472139759999997</v>
+      <c r="A24" s="2">
+        <v>35.836584437248717</v>
+      </c>
+      <c r="B24" s="2">
+        <v>35.811220811796453</v>
+      </c>
+      <c r="C24" s="2">
+        <v>33.372411301496733</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>38.202688109999997</v>
-      </c>
-      <c r="B25">
-        <v>38.826319929999997</v>
-      </c>
-      <c r="C25">
-        <v>39.541421790000001</v>
+      <c r="A25" s="2">
+        <v>38.18762248084311</v>
+      </c>
+      <c r="B25" s="2">
+        <v>38.818554919523031</v>
+      </c>
+      <c r="C25" s="2">
+        <v>39.566744884784001</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>36.512674480000001</v>
-      </c>
-      <c r="B26">
-        <v>37.015200100000001</v>
-      </c>
-      <c r="C26">
-        <v>36.903126829999998</v>
+      <c r="A26" s="2">
+        <v>36.498034690495707</v>
+      </c>
+      <c r="B26" s="2">
+        <v>36.991525563501973</v>
+      </c>
+      <c r="C26" s="2">
+        <v>37.053184907973503</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>37.88002805</v>
-      </c>
-      <c r="B27">
-        <v>38.410064249999998</v>
-      </c>
-      <c r="C27">
-        <v>37.773675330000003</v>
+      <c r="A27" s="2">
+        <v>37.903294726571097</v>
+      </c>
+      <c r="B27" s="2">
+        <v>38.473468163369567</v>
+      </c>
+      <c r="C27" s="2">
+        <v>37.742424298045037</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>36.047966080000002</v>
-      </c>
-      <c r="B28">
-        <v>36.95674451</v>
-      </c>
-      <c r="C28">
-        <v>37.245122569999999</v>
+      <c r="A28" s="2">
+        <v>36.023876998861148</v>
+      </c>
+      <c r="B28" s="2">
+        <v>36.942627921857643</v>
+      </c>
+      <c r="C28" s="2">
+        <v>37.268408342811952</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>37.709978309999997</v>
-      </c>
-      <c r="B29">
-        <v>38.182477509999998</v>
-      </c>
-      <c r="C29">
-        <v>38.29757086</v>
+      <c r="A29" s="2">
+        <v>37.705088017001017</v>
+      </c>
+      <c r="B29" s="2">
+        <v>38.171428146585598</v>
+      </c>
+      <c r="C29" s="2">
+        <v>38.008432123185372</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>36.439552190000001</v>
-      </c>
-      <c r="B30">
-        <v>36.964199960000002</v>
-      </c>
-      <c r="C30">
-        <v>36.626117559999997</v>
+      <c r="A30" s="2">
+        <v>36.430728445015561</v>
+      </c>
+      <c r="B30" s="2">
+        <v>36.936945783900782</v>
+      </c>
+      <c r="C30" s="2">
+        <v>36.638665825906493</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>34.267842199999997</v>
-      </c>
-      <c r="B31">
-        <v>34.332774809999997</v>
-      </c>
-      <c r="C31">
-        <v>28.39589823</v>
+      <c r="A31" s="2">
+        <v>34.298674251606478</v>
+      </c>
+      <c r="B31" s="2">
+        <v>34.363201054539537</v>
+      </c>
+      <c r="C31" s="2">
+        <v>28.331623481820959</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>35.014749819999999</v>
-      </c>
-      <c r="B32">
-        <v>35.435563190000003</v>
-      </c>
-      <c r="C32">
-        <v>34.065246530000003</v>
+      <c r="A32" s="2">
+        <v>34.962383450468778</v>
+      </c>
+      <c r="B32" s="2">
+        <v>35.392214553052483</v>
+      </c>
+      <c r="C32" s="2">
+        <v>34.312537363986458</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>34.419829610000001</v>
-      </c>
-      <c r="B33">
-        <v>34.47212914</v>
-      </c>
-      <c r="C33">
-        <v>27.46284485</v>
+      <c r="A33" s="2">
+        <v>34.440293270175637</v>
+      </c>
+      <c r="B33" s="2">
+        <v>34.49474218917193</v>
+      </c>
+      <c r="C33" s="2">
+        <v>27.51584263238373</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>35.026362980000002</v>
-      </c>
-      <c r="B34">
-        <v>35.248536129999998</v>
-      </c>
-      <c r="C34">
-        <v>29.925407849999999</v>
+      <c r="A34" s="2">
+        <v>35.022733059188518</v>
+      </c>
+      <c r="B34" s="2">
+        <v>35.245503442966474</v>
+      </c>
+      <c r="C34" s="2">
+        <v>29.409910729676021</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>35.010644159999998</v>
-      </c>
-      <c r="B35">
-        <v>35.57029627</v>
-      </c>
-      <c r="C35">
-        <v>34.2604501</v>
+      <c r="A35" s="2">
+        <v>34.998476864137089</v>
+      </c>
+      <c r="B35" s="2">
+        <v>35.569010225433168</v>
+      </c>
+      <c r="C35" s="2">
+        <v>33.947884787055678</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>34.442993999999999</v>
-      </c>
-      <c r="B36">
-        <v>34.979696130000001</v>
-      </c>
-      <c r="C36">
-        <v>33.639141459999998</v>
+      <c r="A36" s="2">
+        <v>34.440636790367783</v>
+      </c>
+      <c r="B36" s="2">
+        <v>34.982528654113437</v>
+      </c>
+      <c r="C36" s="2">
+        <v>33.605163933459643</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>35.708379739999998</v>
-      </c>
-      <c r="B37">
-        <v>36.17192506</v>
-      </c>
-      <c r="C37">
-        <v>35.357975209999999</v>
+      <c r="A37" s="2">
+        <v>35.750934625351142</v>
+      </c>
+      <c r="B37" s="2">
+        <v>36.198262617124442</v>
+      </c>
+      <c r="C37" s="2">
+        <v>35.348201268701573</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>35.048111110000001</v>
-      </c>
-      <c r="B38">
-        <v>35.404955399999999</v>
-      </c>
-      <c r="C38">
-        <v>34.519497080000001</v>
+      <c r="A38" s="2">
+        <v>35.062395979047793</v>
+      </c>
+      <c r="B38" s="2">
+        <v>35.403291239600087</v>
+      </c>
+      <c r="C38" s="2">
+        <v>34.560282554056911</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>34.554432550000001</v>
-      </c>
-      <c r="B39">
-        <v>35.015959389999999</v>
-      </c>
-      <c r="C39">
-        <v>34.202034079999997</v>
+      <c r="A39" s="2">
+        <v>34.572862702385919</v>
+      </c>
+      <c r="B39" s="2">
+        <v>35.03723277779325</v>
+      </c>
+      <c r="C39" s="2">
+        <v>34.181074791674952</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>36.086839009999998</v>
-      </c>
-      <c r="B40">
-        <v>36.73815793</v>
-      </c>
-      <c r="C40">
-        <v>37.396973109999998</v>
+      <c r="A40" s="2">
+        <v>36.086244047885771</v>
+      </c>
+      <c r="B40" s="2">
+        <v>36.760106722769599</v>
+      </c>
+      <c r="C40" s="2">
+        <v>37.431498054064413</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>37.572976439999998</v>
-      </c>
-      <c r="B41">
-        <v>38.022718099999999</v>
-      </c>
-      <c r="C41">
-        <v>38.848918650000002</v>
+      <c r="A41" s="2">
+        <v>37.5619957597427</v>
+      </c>
+      <c r="B41" s="2">
+        <v>38.004925494565931</v>
+      </c>
+      <c r="C41" s="2">
+        <v>38.82510287366982</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>36.329537369999997</v>
-      </c>
-      <c r="B42">
-        <v>37.517986020000002</v>
-      </c>
-      <c r="C42">
-        <v>38.290803529999998</v>
+      <c r="A42" s="2">
+        <v>36.290189552197553</v>
+      </c>
+      <c r="B42" s="2">
+        <v>37.498095916722761</v>
+      </c>
+      <c r="C42" s="2">
+        <v>38.273302874661127</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>35.786298950000003</v>
-      </c>
-      <c r="B43">
-        <v>36.556789670000001</v>
-      </c>
-      <c r="C43">
-        <v>36.99356641</v>
+      <c r="A43" s="2">
+        <v>35.775561327916897</v>
+      </c>
+      <c r="B43" s="2">
+        <v>36.558373079838802</v>
+      </c>
+      <c r="C43" s="2">
+        <v>36.926577932512281</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>35.383115660000001</v>
-      </c>
-      <c r="B44">
-        <v>36.029950589999999</v>
-      </c>
-      <c r="C44">
-        <v>30.118133749999998</v>
+      <c r="A44" s="2">
+        <v>35.367822942555527</v>
+      </c>
+      <c r="B44" s="2">
+        <v>36.019902281858968</v>
+      </c>
+      <c r="C44" s="2">
+        <v>30.736638950810661</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>36.261706400000001</v>
-      </c>
-      <c r="B45">
-        <v>37.245999500000003</v>
-      </c>
-      <c r="C45">
-        <v>37.024073870000002</v>
+      <c r="A45" s="2">
+        <v>36.301161096554971</v>
+      </c>
+      <c r="B45" s="2">
+        <v>37.287709552897446</v>
+      </c>
+      <c r="C45" s="2">
+        <v>36.418172945816913</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>34.199854989999999</v>
-      </c>
-      <c r="B46">
-        <v>34.15440916</v>
-      </c>
-      <c r="C46">
-        <v>19.169923919999999</v>
+      <c r="A46" s="2">
+        <v>34.19771315516688</v>
+      </c>
+      <c r="B46" s="2">
+        <v>33.813656404526448</v>
+      </c>
+      <c r="C46" s="2">
+        <v>19.27898975529126</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>35.375694920000001</v>
-      </c>
-      <c r="B47">
-        <v>35.750330320000003</v>
-      </c>
-      <c r="C47">
-        <v>35.178159350000001</v>
+      <c r="A47" s="2">
+        <v>35.399963057746056</v>
+      </c>
+      <c r="B47" s="2">
+        <v>35.787489689727323</v>
+      </c>
+      <c r="C47" s="2">
+        <v>35.183175265793977</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>34.700725810000002</v>
-      </c>
-      <c r="B48">
-        <v>35.089648109999999</v>
-      </c>
-      <c r="C48">
-        <v>33.664666009999998</v>
+      <c r="A48" s="2">
+        <v>34.696584835978697</v>
+      </c>
+      <c r="B48" s="2">
+        <v>35.084621510421663</v>
+      </c>
+      <c r="C48" s="2">
+        <v>33.636461387231037</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>34.457379639999999</v>
-      </c>
-      <c r="B49">
-        <v>34.719499460000002</v>
-      </c>
-      <c r="C49">
-        <v>32.396724599999999</v>
+      <c r="A49" s="2">
+        <v>34.45912704739105</v>
+      </c>
+      <c r="B49" s="2">
+        <v>34.724307274517393</v>
+      </c>
+      <c r="C49" s="2">
+        <v>32.141990496227507</v>
       </c>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>36.803816279999999</v>
-      </c>
-      <c r="B50">
-        <v>37.526731890000001</v>
-      </c>
-      <c r="C50">
-        <v>38.482020650000003</v>
+      <c r="A50" s="2">
+        <v>36.778860093113657</v>
+      </c>
+      <c r="B50" s="2">
+        <v>37.527755527648957</v>
+      </c>
+      <c r="C50" s="2">
+        <v>38.463077487965798</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>36.682068389999998</v>
-      </c>
-      <c r="B51">
-        <v>37.004612010000002</v>
-      </c>
-      <c r="C51">
-        <v>35.7340515</v>
+      <c r="A51" s="2">
+        <v>36.672154654983963</v>
+      </c>
+      <c r="B51" s="2">
+        <v>36.991438903007143</v>
+      </c>
+      <c r="C51" s="2">
+        <v>35.672750825339222</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/low_noisy/results/psnr.xlsx
+++ b/data/output/low_noisy/results/psnr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\GaussianExperiments\data\output\low_noisy\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1658B18C-3AC2-4243-8DAB-FE387FB215F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E96AC0B-234D-4918-B79D-9093D63DBBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C51"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,13 +438,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>37.166201433516292</v>
+        <v>38.37579625</v>
       </c>
       <c r="B2" s="2">
-        <v>37.816873080708703</v>
+        <v>39.363318800000002</v>
       </c>
       <c r="C2" s="2">
-        <v>38.322728372954991</v>
+        <v>40.328186379999998</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
